--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/21.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/21.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2316335237069713</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.599685749962017</v>
+        <v>-1.601232223748695</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1521597555867371</v>
+        <v>0.1503433375207561</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2453209970388404</v>
+        <v>-0.2449448064688496</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2363825724790745</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.532080841692592</v>
+        <v>-1.533906703873301</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1007239587408732</v>
+        <v>0.09912003325626778</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2486516214995127</v>
+        <v>-0.2483761681532851</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2368473628336399</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.487307080777633</v>
+        <v>-1.489563437188018</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09644262673093532</v>
+        <v>0.09495203062306357</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2586057184226182</v>
+        <v>-0.2580910141699529</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2246141478161918</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.556709518883584</v>
+        <v>-1.559162627684131</v>
       </c>
       <c r="F5" t="n">
-        <v>0.123556680114461</v>
+        <v>0.1215324915244683</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2355085618366519</v>
+        <v>-0.2353653260966136</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2056300553580545</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.591101049674443</v>
+        <v>-1.593416431801877</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1085515558311015</v>
+        <v>0.1066296784839934</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2613303455215897</v>
+        <v>-0.2609872093531462</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1891106522695682</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.477862966049829</v>
+        <v>-1.480137423680109</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1217386880293587</v>
+        <v>0.1195618195845998</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2531580382437966</v>
+        <v>-0.2527960138458974</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1791670300208547</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.263105371158685</v>
+        <v>-1.265425475343482</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1584070374791795</v>
+        <v>0.1563970150612785</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2593250451610526</v>
+        <v>-0.2585459056960088</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1739005702491411</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.005876018317484</v>
+        <v>-1.00727532131632</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1802056282900727</v>
+        <v>0.1780130196541009</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2566932851902379</v>
+        <v>-0.2555757316141144</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1699575173396415</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5932201473434462</v>
+        <v>-0.5944211239329986</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1691166635805094</v>
+        <v>0.1670531245124842</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1650050973553515</v>
+        <v>-0.164128368704787</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1615101851296946</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2202122440158518</v>
+        <v>-0.2207175041537894</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1389379949678113</v>
+        <v>0.1370538940796144</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1292181986134591</v>
+        <v>-0.1282501768538592</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1403150643740355</v>
       </c>
       <c r="E12" t="n">
-        <v>0.240961192353158</v>
+        <v>0.2407565698673889</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1039963444940573</v>
+        <v>0.1016258716973785</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03890570349058953</v>
+        <v>-0.03840831344825851</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.09935752861741004</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7656588924196209</v>
+        <v>0.7653330704615117</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.005002905636894011</v>
+        <v>-0.007367082357087644</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05493731652135748</v>
+        <v>0.05532609924431875</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.03667356888571609</v>
       </c>
       <c r="E14" t="n">
-        <v>1.310510333315218</v>
+        <v>1.310337191211875</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2293698872635793</v>
+        <v>-0.2315451816892168</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1590083127835163</v>
+        <v>0.1590665514910045</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.04692519143025815</v>
       </c>
       <c r="E15" t="n">
-        <v>1.87194721369196</v>
+        <v>1.87191101125217</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4409794439121224</v>
+        <v>-0.4434475058943219</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2926519802966726</v>
+        <v>0.2926267959907318</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1461127538000915</v>
       </c>
       <c r="E16" t="n">
-        <v>2.343704354632596</v>
+        <v>2.344222206923504</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6654392926669644</v>
+        <v>-0.6682394726837583</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4370210141023717</v>
+        <v>0.4366920441060198</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.25074486084063</v>
       </c>
       <c r="E17" t="n">
-        <v>2.798754856619746</v>
+        <v>2.799836207756079</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8786881902303423</v>
+        <v>-0.8817213250770887</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5561537993362567</v>
+        <v>0.5554832671905827</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3548676604181258</v>
       </c>
       <c r="E18" t="n">
-        <v>3.221622963652782</v>
+        <v>3.223647152242775</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.20687668608846</v>
+        <v>-1.209580063929294</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6775673382769066</v>
+        <v>0.6769755070872976</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.45578916429174</v>
       </c>
       <c r="E19" t="n">
-        <v>3.595888508258296</v>
+        <v>3.598145651678241</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.506040269349793</v>
+        <v>-1.508280098559404</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8386068085963013</v>
+        <v>0.8378906298961095</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5529216479463105</v>
       </c>
       <c r="E20" t="n">
-        <v>3.720212408554231</v>
+        <v>3.723991628464474</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.84200835471494</v>
+        <v>-1.843703573308581</v>
       </c>
       <c r="G20" t="n">
-        <v>1.014941022717375</v>
+        <v>1.013757360338157</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6460186839884953</v>
       </c>
       <c r="E21" t="n">
-        <v>3.970034427410591</v>
+        <v>3.974443254969354</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.078775458979232</v>
+        <v>-2.07981352458973</v>
       </c>
       <c r="G21" t="n">
-        <v>1.182855808558611</v>
+        <v>1.181300677666766</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7346790908915093</v>
       </c>
       <c r="E22" t="n">
-        <v>4.175144859107284</v>
+        <v>4.178953985380831</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.374611565818136</v>
+        <v>-2.375428481742091</v>
       </c>
       <c r="G22" t="n">
-        <v>1.323156002935748</v>
+        <v>1.321389953481648</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8186534861691007</v>
       </c>
       <c r="E23" t="n">
-        <v>4.400420049766959</v>
+        <v>4.40397890700022</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.506507285097087</v>
+        <v>-2.507702752619716</v>
       </c>
       <c r="G23" t="n">
-        <v>1.494434467639203</v>
+        <v>1.492037236517462</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8980803253081724</v>
       </c>
       <c r="E24" t="n">
-        <v>4.528123369116327</v>
+        <v>4.531967123810543</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.621136801624931</v>
+        <v>-2.622901277059909</v>
       </c>
       <c r="G24" t="n">
-        <v>1.598414170792327</v>
+        <v>1.595744634362601</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9731922899834605</v>
       </c>
       <c r="E25" t="n">
-        <v>4.669289274010179</v>
+        <v>4.672992941002599</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.817442170357068</v>
+        <v>-2.818724208931367</v>
       </c>
       <c r="G25" t="n">
-        <v>1.661611038512549</v>
+        <v>1.658928909929853</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.043133064803615</v>
       </c>
       <c r="E26" t="n">
-        <v>4.782854753612023</v>
+        <v>4.785988625682533</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.907436713617435</v>
+        <v>-2.90856843336565</v>
       </c>
       <c r="G26" t="n">
-        <v>1.704762772723008</v>
+        <v>1.702052311796128</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.105574740754891</v>
       </c>
       <c r="E27" t="n">
-        <v>4.893415430711305</v>
+        <v>4.895641093748824</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.980169776184058</v>
+        <v>-2.981159047201795</v>
       </c>
       <c r="G27" t="n">
-        <v>1.755249436038727</v>
+        <v>1.752252503631771</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.157335121673273</v>
       </c>
       <c r="E28" t="n">
-        <v>4.893075442581104</v>
+        <v>4.894551872516884</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.069555961054042</v>
+        <v>-3.069793637941358</v>
       </c>
       <c r="G28" t="n">
-        <v>1.796490311035926</v>
+        <v>1.792830716578903</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.194046786318655</v>
       </c>
       <c r="E29" t="n">
-        <v>4.902215771618497</v>
+        <v>4.902716309699071</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.083487604296674</v>
+        <v>-3.083076785306015</v>
       </c>
       <c r="G29" t="n">
-        <v>1.727650584765841</v>
+        <v>1.724156262316553</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.211439136861931</v>
       </c>
       <c r="E30" t="n">
-        <v>4.843945583747946</v>
+        <v>4.844145484176351</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.073338329002527</v>
+        <v>-3.072716591449614</v>
       </c>
       <c r="G30" t="n">
-        <v>1.691443422918561</v>
+        <v>1.688133260706466</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.206646139468414</v>
       </c>
       <c r="E31" t="n">
-        <v>4.718697734227807</v>
+        <v>4.718645791596805</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.062167515298656</v>
+        <v>-3.060708399573211</v>
       </c>
       <c r="G31" t="n">
-        <v>1.632704177349862</v>
+        <v>1.629353090640613</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.179930943419785</v>
       </c>
       <c r="E32" t="n">
-        <v>4.638531366360842</v>
+        <v>4.637557048524757</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.02341122948443</v>
+        <v>-3.021557821969099</v>
       </c>
       <c r="G32" t="n">
-        <v>1.595118174752323</v>
+        <v>1.591930786031689</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.133969701909613</v>
       </c>
       <c r="E33" t="n">
-        <v>4.560681954640431</v>
+        <v>4.559133119825072</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.954336974365271</v>
+        <v>-2.952451299457953</v>
       </c>
       <c r="G33" t="n">
-        <v>1.565948452396379</v>
+        <v>1.562493480425124</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.072879192670579</v>
       </c>
       <c r="E34" t="n">
-        <v>4.358239485354344</v>
+        <v>4.356264091357111</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.882257129733988</v>
+        <v>-2.880129055881989</v>
       </c>
       <c r="G34" t="n">
-        <v>1.515586136591242</v>
+        <v>1.512178385193626</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.001102259724081</v>
       </c>
       <c r="E35" t="n">
-        <v>4.133408168086874</v>
+        <v>4.131601194135621</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.850704342428394</v>
+        <v>-2.848199290996844</v>
       </c>
       <c r="G35" t="n">
-        <v>1.394369350040755</v>
+        <v>1.39139917595886</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9234547952638457</v>
       </c>
       <c r="E36" t="n">
-        <v>3.982417235837863</v>
+        <v>3.980105001748672</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.825560960984737</v>
+        <v>-2.822797770417294</v>
       </c>
       <c r="G36" t="n">
-        <v>1.368040732198758</v>
+        <v>1.364802974866242</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8437070856607748</v>
       </c>
       <c r="E37" t="n">
-        <v>3.786535278249357</v>
+        <v>3.784076660381885</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.761750225807207</v>
+        <v>-2.759118465836393</v>
       </c>
       <c r="G37" t="n">
-        <v>1.280873127280247</v>
+        <v>1.277893509083625</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7639835082020817</v>
       </c>
       <c r="E38" t="n">
-        <v>3.716947892896653</v>
+        <v>3.713854945323297</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.730605896463591</v>
+        <v>-2.72771284931864</v>
       </c>
       <c r="G38" t="n">
-        <v>1.237811112159703</v>
+        <v>1.234630019515554</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6845497823406687</v>
       </c>
       <c r="E39" t="n">
-        <v>3.506841524508952</v>
+        <v>3.503521918182129</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.748205004258854</v>
+        <v>-2.744743736211114</v>
       </c>
       <c r="G39" t="n">
-        <v>1.162620218735169</v>
+        <v>1.159284872217133</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6055378374379394</v>
       </c>
       <c r="E40" t="n">
-        <v>3.261077326947305</v>
+        <v>3.257427176605009</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.713597832848377</v>
+        <v>-2.709613990452364</v>
       </c>
       <c r="G40" t="n">
-        <v>1.098493105714258</v>
+        <v>1.095148315081494</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5272449147335158</v>
       </c>
       <c r="E41" t="n">
-        <v>3.089087405601022</v>
+        <v>3.085380590570359</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.652905229550143</v>
+        <v>-2.648638850721858</v>
       </c>
       <c r="G41" t="n">
-        <v>1.066554683723946</v>
+        <v>1.063173690651392</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4496405158426064</v>
       </c>
       <c r="E42" t="n">
-        <v>2.975285823130982</v>
+        <v>2.970864403419248</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.621997790084283</v>
+        <v>-2.617856545776141</v>
       </c>
       <c r="G42" t="n">
-        <v>0.982402899441847</v>
+        <v>0.9791194955548137</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3721732424414501</v>
       </c>
       <c r="E43" t="n">
-        <v>2.841934923174388</v>
+        <v>2.83731517705337</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.605262818786614</v>
+        <v>-2.600882323572034</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9302997184885515</v>
+        <v>0.9270257587162462</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2946010374808427</v>
       </c>
       <c r="E44" t="n">
-        <v>2.713419409958429</v>
+        <v>2.707949693511909</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.533467871616286</v>
+        <v>-2.529300655992643</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8661757535058828</v>
+        <v>0.86309854612374</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2176746569289689</v>
       </c>
       <c r="E45" t="n">
-        <v>2.516767757019606</v>
+        <v>2.511526273345675</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.468061868059318</v>
+        <v>-2.463916688703373</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8362237436466521</v>
+        <v>0.832935617702255</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1422557727561271</v>
       </c>
       <c r="E46" t="n">
-        <v>2.390943816501072</v>
+        <v>2.385360770677818</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.428496536416743</v>
+        <v>-2.424514268039853</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7728899362628763</v>
+        <v>0.7696978254848785</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.06889737624037415</v>
       </c>
       <c r="E47" t="n">
-        <v>2.227903767878504</v>
+        <v>2.222153876028393</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.293278062772726</v>
+        <v>-2.289605876162732</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7165227375099774</v>
+        <v>0.7134408080704706</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.002382354904294721</v>
       </c>
       <c r="E48" t="n">
-        <v>2.139977485743527</v>
+        <v>2.134018249350282</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.252348056551984</v>
+        <v>-2.248799430443011</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6678194378586915</v>
+        <v>0.6647170461706078</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.07123330199354484</v>
       </c>
       <c r="E49" t="n">
-        <v>1.986751446342268</v>
+        <v>1.980639530094258</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.200462877246988</v>
+        <v>-2.196886705803393</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5933667594020476</v>
+        <v>0.5904516759893987</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1372060468642851</v>
       </c>
       <c r="E50" t="n">
-        <v>1.893586828571602</v>
+        <v>1.887029464912263</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.153036107103077</v>
+        <v>-2.149453639582997</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5366438323277347</v>
+        <v>0.5338090238902722</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1999766699758662</v>
       </c>
       <c r="E51" t="n">
-        <v>1.769675321285448</v>
+        <v>1.76297314786695</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.103038176724521</v>
+        <v>-2.099362842076284</v>
       </c>
       <c r="G51" t="n">
-        <v>0.491552906559834</v>
+        <v>0.489014013717176</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2594167279626948</v>
       </c>
       <c r="E52" t="n">
-        <v>1.658104123910291</v>
+        <v>1.650939188870131</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.984788416217686</v>
+        <v>-1.981711208835543</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4559910925522875</v>
+        <v>0.4533199821034403</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.3153779445543489</v>
       </c>
       <c r="E53" t="n">
-        <v>1.614846930418706</v>
+        <v>1.607556073848841</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.925272392212625</v>
+        <v>-1.922070050310339</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3847289508545202</v>
+        <v>0.3822089462413178</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.3677986763990485</v>
       </c>
       <c r="E54" t="n">
-        <v>1.571655845730215</v>
+        <v>1.563858155003292</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.914920068451831</v>
+        <v>-1.911517826121139</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3503570953026771</v>
+        <v>0.3479976406398473</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.4172280581343161</v>
       </c>
       <c r="E55" t="n">
-        <v>1.516798131314643</v>
+        <v>1.508460552029114</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.849755676829982</v>
+        <v>-1.846774484614239</v>
       </c>
       <c r="G55" t="n">
-        <v>0.323424054118101</v>
+        <v>0.3211086719906677</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.464292613491389</v>
       </c>
       <c r="E56" t="n">
-        <v>1.45882858109626</v>
+        <v>1.45084043405566</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.787848717779665</v>
+        <v>-1.785243716133913</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2159122520567788</v>
+        <v>0.2140344472450671</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.5095305957788088</v>
       </c>
       <c r="E57" t="n">
-        <v>1.46882360251652</v>
+        <v>1.459681699460005</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.785576621178068</v>
+        <v>-1.782714267405983</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2167999988411924</v>
+        <v>0.214568039727188</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.5531117779523026</v>
       </c>
       <c r="E58" t="n">
-        <v>1.454037266891021</v>
+        <v>1.444283070396321</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.770647836822091</v>
+        <v>-1.768041261157218</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2123502467852754</v>
+        <v>0.2099640337973835</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.5953038811291018</v>
       </c>
       <c r="E59" t="n">
-        <v>1.442373785202183</v>
+        <v>1.432388207896651</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.734139250313083</v>
+        <v>-1.731630263833729</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1383839402371135</v>
+        <v>0.1361267968171683</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.6370102021295296</v>
       </c>
       <c r="E60" t="n">
-        <v>1.475448648998074</v>
+        <v>1.465063270835733</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.766545155982421</v>
+        <v>-1.763859092351922</v>
       </c>
       <c r="G60" t="n">
-        <v>0.118186126872583</v>
+        <v>0.1158392643627237</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.67886640367109</v>
       </c>
       <c r="E61" t="n">
-        <v>1.473232430075283</v>
+        <v>1.462324477564669</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.784906876041954</v>
+        <v>-1.782249931765199</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1305736573572194</v>
+        <v>0.128053652744017</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.7210002088723887</v>
       </c>
       <c r="E62" t="n">
-        <v>1.484176585025687</v>
+        <v>1.472492641088272</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.828814139430637</v>
+        <v>-1.82582901216709</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04304088000256688</v>
+        <v>0.04069086945446496</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.7626205396757844</v>
       </c>
       <c r="E63" t="n">
-        <v>1.470861957278604</v>
+        <v>1.458576738036852</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.789737540725226</v>
+        <v>-1.786726442146178</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0087508734450314</v>
+        <v>0.006603911363577261</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.8033134008041521</v>
       </c>
       <c r="E64" t="n">
-        <v>1.472470604820574</v>
+        <v>1.459749382282221</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.817259265061169</v>
+        <v>-1.814251314520363</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.02155371669737074</v>
+        <v>-0.0235055004077836</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.8423755037557779</v>
       </c>
       <c r="E65" t="n">
-        <v>1.482878019250614</v>
+        <v>1.469262753851363</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.842733190520299</v>
+        <v>-1.83970949978828</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02461360986917928</v>
+        <v>-0.02683455084933455</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.8782667785928826</v>
       </c>
       <c r="E66" t="n">
-        <v>1.446444198649867</v>
+        <v>1.432786434734341</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.848009302614899</v>
+        <v>-1.845015518246185</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03291656073404041</v>
+        <v>-0.03530906979841746</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.9094744479288546</v>
       </c>
       <c r="E67" t="n">
-        <v>1.412072343098024</v>
+        <v>1.398088757224388</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.859786900690031</v>
+        <v>-1.856886770459035</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05200311659893255</v>
+        <v>-0.05430275853515285</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.9345106975094581</v>
       </c>
       <c r="E68" t="n">
-        <v>1.361999646811206</v>
+        <v>1.347994024669873</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.889668866698364</v>
+        <v>-1.886903315102239</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.05931600943649554</v>
+        <v>-0.06133547596912432</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.9530453883901525</v>
       </c>
       <c r="E69" t="n">
-        <v>1.258068738250843</v>
+        <v>1.244582542419539</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.911062934595083</v>
+        <v>-1.908370574888098</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.08158050990729378</v>
+        <v>-0.08374636021820352</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.965156213903148</v>
       </c>
       <c r="E70" t="n">
-        <v>1.274640011559897</v>
+        <v>1.261081410849012</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.916295761163847</v>
+        <v>-1.913395630932851</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.05031734212001951</v>
+        <v>-0.05274920166242907</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.9713995920097294</v>
       </c>
       <c r="E71" t="n">
-        <v>1.26741998585049</v>
+        <v>1.254026657147343</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.950612526046445</v>
+        <v>-1.948090160404561</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07006026395849403</v>
+        <v>-0.0722717608239215</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.9718083030433888</v>
       </c>
       <c r="E72" t="n">
-        <v>1.251010836510931</v>
+        <v>1.237960643976227</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.98006163679642</v>
+        <v>-1.977363768022511</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1051183918472243</v>
+        <v>-0.1072149853167968</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.9664382395385086</v>
       </c>
       <c r="E73" t="n">
-        <v>1.255784836505836</v>
+        <v>1.243028985546815</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.979805858689209</v>
+        <v>-1.977106415896178</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.09242392763393421</v>
+        <v>-0.09458348186835876</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.955013150006417</v>
       </c>
       <c r="E74" t="n">
-        <v>1.250239567141493</v>
+        <v>1.238225079188605</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.987776691519475</v>
+        <v>-1.985182708007572</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07325867081297703</v>
+        <v>-0.07563386566701977</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.9376340774684525</v>
       </c>
       <c r="E75" t="n">
-        <v>1.194402812832473</v>
+        <v>1.183120243770989</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.020520224290333</v>
+        <v>-2.017888464319518</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04527418485537211</v>
+        <v>-0.04766039784326395</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.9139585837561696</v>
       </c>
       <c r="E76" t="n">
-        <v>1.229649823015759</v>
+        <v>1.219330553656512</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.023787887986153</v>
+        <v>-2.021386721816609</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.02538330521949532</v>
+        <v>-0.02773331576759724</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.8833641291818898</v>
       </c>
       <c r="E77" t="n">
-        <v>1.163973875179488</v>
+        <v>1.155359268528609</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.02132769609956</v>
+        <v>-2.018727416511171</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02700454491443503</v>
+        <v>-0.02935927751990085</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.8452041924903584</v>
       </c>
       <c r="E78" t="n">
-        <v>1.18346023190119</v>
+        <v>1.175821517105518</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.031936584977127</v>
+        <v>-2.029355193618194</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.02188740875108649</v>
+        <v>-0.02396039193383949</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.798889415818668</v>
       </c>
       <c r="E79" t="n">
-        <v>1.169098881438443</v>
+        <v>1.162864191698971</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.008914981308983</v>
+        <v>-2.005950316294013</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.04354276382194135</v>
+        <v>-0.04558426662226835</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.7451649689846389</v>
       </c>
       <c r="E80" t="n">
-        <v>1.147605650337082</v>
+        <v>1.142911925317363</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.970655298527527</v>
+        <v>-1.968339916400094</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.02729731247099695</v>
+        <v>-0.02909169426927974</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.6846118237021168</v>
       </c>
       <c r="E81" t="n">
-        <v>1.172023408965819</v>
+        <v>1.168165488099512</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.923861284070379</v>
+        <v>-1.921741080313987</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.007544946517794622</v>
+        <v>-0.009060726931607184</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.6182874521832813</v>
       </c>
       <c r="E82" t="n">
-        <v>1.230543865876658</v>
+        <v>1.227561099641793</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.952151916747077</v>
+        <v>-1.949751537587094</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02020815862897911</v>
+        <v>0.01872228457847126</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5474796184736439</v>
       </c>
       <c r="E83" t="n">
-        <v>1.317220376829323</v>
+        <v>1.314783795229549</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.847252199417553</v>
+        <v>-1.845531796517972</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01263083057903759</v>
+        <v>0.01131809863187282</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4736937934590453</v>
       </c>
       <c r="E84" t="n">
-        <v>1.311097442447463</v>
+        <v>1.309814616863603</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.786338446432777</v>
+        <v>-1.784879330707332</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02309333567832327</v>
+        <v>0.02187661889755783</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3977630408837387</v>
       </c>
       <c r="E85" t="n">
-        <v>1.419944012723648</v>
+        <v>1.418804422879826</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.758446827603329</v>
+        <v>-1.756914519988743</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01677837096366491</v>
+        <v>0.01591108642782823</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3210713320120527</v>
       </c>
       <c r="E86" t="n">
-        <v>1.665089620770624</v>
+        <v>1.663408568349075</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.653892607470931</v>
+        <v>-1.6528631989656</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03257522686503861</v>
+        <v>0.03198182165630825</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2454597556970933</v>
       </c>
       <c r="E87" t="n">
-        <v>1.598952485331812</v>
+        <v>1.598326025721534</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.534090864110493</v>
+        <v>-1.533114972255287</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05336329740005679</v>
+        <v>0.05288636960630268</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.173640157977683</v>
       </c>
       <c r="E88" t="n">
-        <v>1.746469557380112</v>
+        <v>1.745295339115622</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.33418335261926</v>
+        <v>-1.333611196668667</v>
       </c>
       <c r="G88" t="n">
-        <v>0.09003951694548412</v>
+        <v>0.08956416317085131</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1098070010914136</v>
       </c>
       <c r="E89" t="n">
-        <v>1.913984542364538</v>
+        <v>1.912205900757468</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.159098909680499</v>
+        <v>-1.15894229477793</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1137615591226068</v>
+        <v>0.113254724965548</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.05811433477012387</v>
       </c>
       <c r="E90" t="n">
-        <v>1.934785205052526</v>
+        <v>1.933259980523986</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9186265644046653</v>
+        <v>-0.9190546976056591</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1426054595204419</v>
+        <v>0.1420403866558949</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.02148361054582765</v>
       </c>
       <c r="E91" t="n">
-        <v>1.973145625057745</v>
+        <v>1.971610956414477</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6663018551454372</v>
+        <v>-0.667630327283815</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09559108238631164</v>
+        <v>0.09532822119305442</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.002355714008977853</v>
       </c>
       <c r="E92" t="n">
-        <v>1.989057384354974</v>
+        <v>1.986830147298334</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4609238401981234</v>
+        <v>-0.4625718382181253</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1068673553713098</v>
+        <v>0.1065273672411088</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.001874970202564589</v>
       </c>
       <c r="E93" t="n">
-        <v>1.962450165128507</v>
+        <v>1.960279592760233</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2402290451814327</v>
+        <v>-0.241999816692896</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09194880213962185</v>
+        <v>0.09188269333652722</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.01755036364773763</v>
       </c>
       <c r="E94" t="n">
-        <v>1.849696879393254</v>
+        <v>1.847910367690577</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05711553070491718</v>
+        <v>-0.05903583403290402</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0666716290706541</v>
+        <v>0.06661339036316598</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.04418265564371321</v>
       </c>
       <c r="E95" t="n">
-        <v>1.798483019243493</v>
+        <v>1.796428924290196</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07408683315110165</v>
+        <v>0.07217912197608521</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0542825245668964</v>
+        <v>0.0540542917943078</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.07590771802126811</v>
       </c>
       <c r="E96" t="n">
-        <v>1.670346844635768</v>
+        <v>1.668566629009577</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1471638188957287</v>
+        <v>0.1456086880038836</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.00529882123169854</v>
+        <v>-0.005330301614124553</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1073404323334557</v>
       </c>
       <c r="E97" t="n">
-        <v>1.504590039009835</v>
+        <v>1.503047500270961</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1511083108137082</v>
+        <v>0.1500678841745285</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02054949249798091</v>
+        <v>-0.02049125379049278</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.135586858125137</v>
       </c>
       <c r="E98" t="n">
-        <v>1.390928544241591</v>
+        <v>1.389628404447397</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1791352952875883</v>
+        <v>0.1781609774515031</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.0587493625528273</v>
+        <v>-0.05850538958902569</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1592153272731024</v>
       </c>
       <c r="E99" t="n">
-        <v>1.251180830576031</v>
+        <v>1.250195494606097</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1820928772165122</v>
+        <v>0.1813058676558619</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09841779244784724</v>
+        <v>-0.09810456264270839</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1834995554052306</v>
       </c>
       <c r="E100" t="n">
-        <v>1.091938890093162</v>
+        <v>1.091276228043094</v>
       </c>
       <c r="F100" t="n">
-        <v>0.238165734393728</v>
+        <v>0.2370387367028766</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1456273479530188</v>
+        <v>-0.145167734369599</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2088862507094374</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9100137600532283</v>
+        <v>0.9099161708677077</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2202077502388084</v>
+        <v>0.2191736196761138</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1714019110643175</v>
+        <v>-0.1707801735114038</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2410005038626719</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8501774231569826</v>
+        <v>0.8498736374665716</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2583918801024418</v>
+        <v>0.2573498794441407</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2094223429393356</v>
+        <v>-0.2087659769657532</v>
       </c>
     </row>
   </sheetData>
